--- a/recombination/rdp_stats_summary_compact_4sig_plots.xlsx
+++ b/recombination/rdp_stats_summary_compact_4sig_plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B63951-37B8-4C4A-AFDC-2D3AA5615FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE190F3-847D-F946-B31B-029E73CDCE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="-1980" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37940" yWindow="-1980" windowWidth="28040" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rdp_stats_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t xml:space="preserve"> RDP</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_align_nt</t>
+  </si>
+  <si>
+    <t>Bat picornavirus</t>
+  </si>
+  <si>
+    <t>PV788825</t>
+  </si>
+  <si>
+    <t>Unknown (PP711909)</t>
+  </si>
+  <si>
+    <t>PP711912</t>
+  </si>
+  <si>
+    <t>Unknown(PP711930)</t>
+  </si>
+  <si>
+    <t>PP711913</t>
+  </si>
+  <si>
+    <t>Unknown (PP711930)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711909)</t>
   </si>
 </sst>
 </file>
@@ -820,7 +847,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,8 +870,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1221,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,34 +1354,34 @@
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3">
         <v>817</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="9">
         <v>1.99E-9</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>1.11E-6</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>7.8299999999999996E-7</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>2.5699999999999999E-7</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>2.4600000000000002E-5</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1372,18 +1398,10 @@
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1393,18 +1411,10 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1414,34 +1424,34 @@
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>3071</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6">
         <v>5027</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="9">
         <v>6.34E-9</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>6.7700000000000004E-6</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>4.6600000000000005E-10</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>2.8699999999999998E-11</v>
       </c>
       <c r="M6" s="8">
@@ -1453,43 +1463,43 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="22">
-        <v>3225</v>
-      </c>
-      <c r="D7" s="22">
-        <v>7029</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>7547</v>
+      </c>
+      <c r="D7">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="9">
-        <v>4.64E-3</v>
-      </c>
-      <c r="I7" s="22" t="s">
+        <v>3.22735863970839E-5</v>
+      </c>
+      <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="23">
-        <v>3.18E-5</v>
-      </c>
-      <c r="L7" s="23">
-        <v>3.9700000000000003E-5</v>
+      <c r="K7" s="22">
+        <v>1.9594426605551001E-4</v>
+      </c>
+      <c r="L7" s="22">
+        <v>3.49790437275121E-4</v>
       </c>
       <c r="M7" s="8">
-        <v>3.6600000000000001E-4</v>
+        <v>3.7328050331658799E-2</v>
       </c>
       <c r="N7" t="s">
         <v>46</v>
@@ -1497,221 +1507,329 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="22">
-        <v>6645</v>
-      </c>
-      <c r="D8" s="22">
-        <v>6815</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="23">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="L8" s="23">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M8" s="8">
-        <v>3.78E-2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>814</v>
+      </c>
+      <c r="D9">
+        <v>1160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="9">
+        <v>7.9074702580138306E-3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2.19526240681252E-2</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1.05950238646865E-2</v>
+      </c>
+      <c r="L9" s="22">
+        <v>3.87328861043032E-4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>4.3266160872050798E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="22">
-        <v>6968</v>
-      </c>
-      <c r="D10" s="22">
-        <v>7180</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.0400000000000001E-20</v>
-      </c>
-      <c r="I10" s="23">
-        <v>3.0899999999999997E-7</v>
-      </c>
-      <c r="J10" s="23">
-        <v>4.54E-21</v>
-      </c>
-      <c r="K10" s="23">
-        <v>9.7300000000000003E-11</v>
-      </c>
-      <c r="L10" s="23">
-        <v>6.3199999999999999E-10</v>
-      </c>
-      <c r="M10" s="8">
-        <v>8.0499999999999993E-9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>3225</v>
+      </c>
+      <c r="D11">
+        <v>7029</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4.64E-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="22">
+        <v>3.18E-5</v>
+      </c>
+      <c r="L11" s="22">
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="22">
-        <v>915</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>6645</v>
+      </c>
+      <c r="D12">
+        <v>6815</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="9">
-        <v>4.6999999999999999E-6</v>
-      </c>
-      <c r="I12" s="22" t="s">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="I12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="23">
-        <v>5.4699999999999996E-4</v>
-      </c>
-      <c r="K12" s="23">
-        <v>1.1900000000000001E-8</v>
-      </c>
-      <c r="L12" s="23">
-        <v>1.7600000000000001E-6</v>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="L12" s="22">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M12" s="8">
-        <v>1.66E-4</v>
+        <v>3.78E-2</v>
       </c>
       <c r="N12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>6968</v>
+      </c>
+      <c r="D14">
+        <v>7180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.0400000000000001E-20</v>
+      </c>
+      <c r="I14" s="22">
+        <v>3.0899999999999997E-7</v>
+      </c>
+      <c r="J14" s="22">
+        <v>4.54E-21</v>
+      </c>
+      <c r="K14" s="22">
+        <v>9.7300000000000003E-11</v>
+      </c>
+      <c r="L14" s="22">
+        <v>6.3199999999999999E-10</v>
+      </c>
+      <c r="M14" s="8">
+        <v>8.0499999999999993E-9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>915</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="22">
+        <v>5.4699999999999996E-4</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1.1900000000000001E-8</v>
+      </c>
+      <c r="L16" s="22">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1.66E-4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C17" s="7">
         <v>5039</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D17" s="7">
         <v>913</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H17" s="12">
         <v>2.33E-15</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J17" s="13">
         <v>6.5599999999999999E-6</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K17" s="13">
         <v>2.02E-4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L17" s="13">
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M17" s="23">
         <v>2.6600000000000002E-14</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N17" t="s">
         <v>46</v>
       </c>
     </row>
